--- a/índice de los datos.xlsx
+++ b/índice de los datos.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drhom\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Base-de-datos-pa-ses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C41F6B5-7318-4684-BD2F-286602242A47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB937172-4B3D-42C7-8C19-BA5B23CC4342}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{7C9B3CF5-F9C5-4369-918A-A68591DF3C2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend" sheetId="3" r:id="rId1"/>
-    <sheet name="Países contenidos en la muestra" sheetId="1" r:id="rId2"/>
+    <sheet name="CrisisDefinition" sheetId="4" r:id="rId1"/>
+    <sheet name="Legend" sheetId="3" r:id="rId2"/>
+    <sheet name="Países contenidos en la muestra" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Legend!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Legend!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Paises de la muestra</t>
   </si>
@@ -603,12 +604,45 @@
   <si>
     <t>Price level of the capital services, price level of USA=1</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reinhart, Camen M. and Kenneth S. Rogoff</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 2009, This Time It’s Different: Eight Centuries of Financial Folly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (Princeton: Princeton University Press).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +684,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -684,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -701,6 +761,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,6 +780,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF562E35-94CD-4FB6-9834-99986E5C0467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1286933" y="905933"/>
+          <a:ext cx="6163733" cy="2870200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D84C80C-4612-401C-B63D-BDCAA584595E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1286933" y="4106333"/>
+          <a:ext cx="6155267" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,13 +1231,709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A27961E-55F2-4A86-800D-A828F0F10ABE}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594FB33D-ED1A-42A9-AB4C-2F15505BC49C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -1585,17 +2496,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298F67E1-860C-4391-8D76-4B251BF2BEE3}">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
